--- a/AAII_Financials/Quarterly/LAAB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LAAB_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
   <si>
     <t>LAAB</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,55 +665,59 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43890</v>
+      </c>
+      <c r="E7" s="2">
         <v>43799</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43708</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43616</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43524</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43434</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43343</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43251</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43159</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -741,8 +745,11 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -770,8 +777,11 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,8 +809,11 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,8 +825,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -841,8 +855,11 @@
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,8 +887,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -893,14 +913,17 @@
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +951,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,13 +964,14 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>38500</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
@@ -967,8 +994,11 @@
       <c r="K17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -996,8 +1026,11 @@
       <c r="K18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,8 +1042,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1038,8 +1072,11 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1067,8 +1104,11 @@
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1076,40 +1116,43 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>100</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G22" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-38500</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
         <v>0</v>
       </c>
@@ -1125,8 +1168,11 @@
       <c r="K23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1154,8 +1200,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,20 +1232,23 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-38500</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
         <v>0</v>
       </c>
@@ -1212,20 +1264,23 @@
       <c r="K26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-38500</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
         <v>0</v>
       </c>
@@ -1241,8 +1296,11 @@
       <c r="K27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,8 +1424,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1386,20 +1456,23 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-38500</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
         <v>0</v>
       </c>
@@ -1415,8 +1488,11 @@
       <c r="K33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,20 +1520,23 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-38500</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
         <v>0</v>
       </c>
@@ -1473,42 +1552,48 @@
       <c r="K35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43890</v>
+      </c>
+      <c r="E38" s="2">
         <v>43799</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43708</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43616</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43524</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43434</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43343</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43251</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43159</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,8 +1619,9 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1562,8 +1649,11 @@
       <c r="K41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,8 +1681,11 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1602,8 +1695,8 @@
       <c r="E43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
+      <c r="F43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
@@ -1620,8 +1713,11 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,8 +1745,11 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1678,8 +1777,11 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1689,8 +1791,8 @@
       <c r="E46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F46" s="3">
-        <v>0</v>
+      <c r="F46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G46" s="3">
         <v>0</v>
@@ -1707,8 +1809,11 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1736,8 +1841,11 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1765,8 +1873,11 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1794,8 +1905,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,8 +1969,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1881,8 +2001,11 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,8 +2033,11 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -1939,8 +2065,11 @@
       <c r="K54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,8 +2095,9 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1994,8 +2125,11 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2005,8 +2139,8 @@
       <c r="E58" s="3">
         <v>100</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
+      <c r="F58" s="3">
+        <v>100</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>4</v>
@@ -2023,8 +2157,11 @@
       <c r="K58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2035,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="F59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G59" s="3">
         <v>100</v>
@@ -2047,13 +2184,16 @@
         <v>100</v>
       </c>
       <c r="J59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2079,10 +2219,13 @@
         <v>100</v>
       </c>
       <c r="K60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2110,8 +2253,11 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2139,8 +2285,11 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,8 +2381,11 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2253,10 +2411,13 @@
         <v>100</v>
       </c>
       <c r="K66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,13 +2555,16 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-200</v>
+        <v>-38800</v>
       </c>
       <c r="E72" s="3">
         <v>-200</v>
@@ -2402,7 +2576,7 @@
         <v>-200</v>
       </c>
       <c r="H72" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="I72" s="3">
         <v>-100</v>
@@ -2413,8 +2587,11 @@
       <c r="K72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,8 +2683,11 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -2524,13 +2710,16 @@
         <v>-100</v>
       </c>
       <c r="J76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,54 +2747,60 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43890</v>
+      </c>
+      <c r="E80" s="2">
         <v>43799</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43708</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43616</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43524</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43434</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43343</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43251</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43159</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-38500</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
         <v>0</v>
       </c>
@@ -2621,8 +2816,11 @@
       <c r="K81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,8 +2832,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2663,8 +2862,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,8 +3022,11 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -2837,8 +3054,11 @@
       <c r="K89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,8 +3070,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2879,8 +3100,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,8 +3164,11 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2966,8 +3196,11 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,8 +3338,11 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3124,8 +3370,11 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,8 +3402,11 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3180,6 +3432,9 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LAAB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LAAB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
   <si>
     <t>LAAB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,59 +665,67 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44074</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43982</v>
+      </c>
+      <c r="F7" s="2">
         <v>43890</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43799</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43708</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43616</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43524</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43434</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43343</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43251</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43159</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -748,8 +756,14 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -780,8 +794,14 @@
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +832,14 @@
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,8 +852,10 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -858,8 +886,14 @@
       <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,8 +924,14 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -916,14 +956,20 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -954,8 +1000,14 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,20 +1017,22 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
         <v>38500</v>
       </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
       <c r="G17" s="3">
         <v>0</v>
       </c>
@@ -997,8 +1051,14 @@
       <c r="L17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1009,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>-38500</v>
       </c>
       <c r="G18" s="3">
         <v>0</v>
@@ -1029,8 +1089,14 @@
       <c r="L18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,8 +1109,10 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1075,8 +1143,14 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1107,8 +1181,14 @@
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1116,49 +1196,55 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-38500</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
         <v>0</v>
       </c>
@@ -1171,8 +1257,14 @@
       <c r="L23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1203,8 +1295,14 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,26 +1333,32 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-38500</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
         <v>0</v>
       </c>
@@ -1267,26 +1371,32 @@
       <c r="L26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-38500</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
         <v>0</v>
       </c>
@@ -1299,8 +1409,14 @@
       <c r="L27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,13 +1447,19 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -1363,8 +1485,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1523,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,8 +1561,14 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1459,26 +1599,32 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-38500</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
         <v>0</v>
       </c>
@@ -1491,8 +1637,14 @@
       <c r="L33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,26 +1675,32 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-38500</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
         <v>0</v>
       </c>
@@ -1555,45 +1713,57 @@
       <c r="L35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44074</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43982</v>
+      </c>
+      <c r="F38" s="2">
         <v>43890</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43799</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43708</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43616</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43524</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43434</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43343</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43251</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43159</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1776,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,8 +1792,10 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1652,8 +1826,14 @@
       <c r="L41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1684,8 +1864,14 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1698,11 +1884,11 @@
       <c r="F43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
+      <c r="G43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
@@ -1716,8 +1902,14 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1748,8 +1940,14 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1780,25 +1978,31 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>4</v>
+      <c r="E46" s="3">
+        <v>0</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
-      <c r="H46" s="3">
-        <v>0</v>
+      <c r="G46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I46" s="3">
         <v>0</v>
@@ -1812,8 +2016,14 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1844,8 +2054,14 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1876,8 +2092,14 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1908,8 +2130,14 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2168,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,8 +2206,14 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2004,8 +2244,14 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,8 +2282,14 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2068,8 +2320,14 @@
       <c r="L54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3">
+        <v>0</v>
+      </c>
+      <c r="N54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2340,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,8 +2356,10 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2128,8 +2390,14 @@
       <c r="L57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2142,11 +2410,11 @@
       <c r="F58" s="3">
         <v>100</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
+      <c r="G58" s="3">
+        <v>100</v>
+      </c>
+      <c r="H58" s="3">
+        <v>100</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>4</v>
@@ -2160,8 +2428,14 @@
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2175,10 +2449,10 @@
         <v>0</v>
       </c>
       <c r="G59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I59" s="3">
         <v>100</v>
@@ -2187,18 +2461,24 @@
         <v>100</v>
       </c>
       <c r="K59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L59" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E60" s="3">
         <v>100</v>
@@ -2222,10 +2502,16 @@
         <v>100</v>
       </c>
       <c r="L60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="M60" s="3">
+        <v>100</v>
+      </c>
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2256,8 +2542,14 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2288,8 +2580,14 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2618,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2656,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,13 +2694,19 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E66" s="3">
         <v>100</v>
@@ -2414,10 +2730,16 @@
         <v>100</v>
       </c>
       <c r="L66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="M66" s="3">
+        <v>100</v>
+      </c>
+      <c r="N66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2752,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2786,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2824,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2862,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,19 +2900,25 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-38900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-38800</v>
       </c>
-      <c r="E72" s="3">
-        <v>-200</v>
-      </c>
       <c r="F72" s="3">
-        <v>-200</v>
+        <v>-38800</v>
       </c>
       <c r="G72" s="3">
         <v>-200</v>
@@ -2579,10 +2927,10 @@
         <v>-200</v>
       </c>
       <c r="I72" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="J72" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="K72" s="3">
         <v>-100</v>
@@ -2590,8 +2938,14 @@
       <c r="L72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2976,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +3014,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,13 +3052,19 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E76" s="3">
         <v>-100</v>
@@ -2713,13 +3085,19 @@
         <v>-100</v>
       </c>
       <c r="K76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="M76" s="3">
+        <v>0</v>
+      </c>
+      <c r="N76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,63 +3128,75 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44074</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43982</v>
+      </c>
+      <c r="F80" s="2">
         <v>43890</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43799</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43708</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43616</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43524</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43434</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43343</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43251</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43159</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-38500</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
         <v>0</v>
       </c>
@@ -2819,8 +3209,14 @@
       <c r="L81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,8 +3229,10 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2865,8 +3263,14 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3301,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3339,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3377,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3415,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,8 +3453,14 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3057,8 +3491,14 @@
       <c r="L89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,8 +3511,10 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3103,8 +3545,14 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3583,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,8 +3621,14 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3199,8 +3659,14 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3679,10 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3713,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3751,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3789,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,8 +3827,14 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3373,8 +3865,14 @@
       <c r="L100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3405,8 +3903,14 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3435,6 +3939,12 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LAAB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LAAB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
   <si>
     <t>LAAB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,67 +665,70 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E7" s="2">
         <v>44074</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43982</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43890</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43799</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43708</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43616</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43524</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43434</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43343</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43251</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43159</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -762,8 +765,11 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -800,8 +806,11 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,8 +847,11 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,8 +866,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -892,8 +905,11 @@
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,8 +946,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -962,14 +981,17 @@
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,8 +1028,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,8 +1044,9 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1031,11 +1057,11 @@
         <v>0</v>
       </c>
       <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
         <v>38500</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
       <c r="H17" s="3">
         <v>0</v>
       </c>
@@ -1057,8 +1083,11 @@
       <c r="N17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1069,11 +1098,11 @@
         <v>0</v>
       </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>-38500</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
         <v>0</v>
       </c>
@@ -1095,8 +1124,11 @@
       <c r="N18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,8 +1143,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1149,8 +1182,11 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1187,8 +1223,11 @@
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1196,37 +1235,40 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>100</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
       <c r="G22" s="3">
         <v>0</v>
       </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J22" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
+      <c r="L22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1234,20 +1276,20 @@
         <v>0</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-38500</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
         <v>0</v>
       </c>
@@ -1263,8 +1305,11 @@
       <c r="N23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1301,8 +1346,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,8 +1387,11 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1348,20 +1399,20 @@
         <v>0</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-38500</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
         <v>0</v>
       </c>
@@ -1377,8 +1428,11 @@
       <c r="N26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1386,20 +1440,20 @@
         <v>0</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-38500</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
         <v>0</v>
       </c>
@@ -1415,8 +1469,11 @@
       <c r="N27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,16 +1510,19 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -1491,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,8 +1633,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1605,8 +1674,11 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1614,20 +1686,20 @@
         <v>0</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-38500</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
         <v>0</v>
       </c>
@@ -1643,8 +1715,11 @@
       <c r="N33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,8 +1756,11 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1690,20 +1768,20 @@
         <v>0</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-38500</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
         <v>0</v>
       </c>
@@ -1719,51 +1797,57 @@
       <c r="N35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E38" s="2">
         <v>44074</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43982</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43890</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43799</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43708</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43616</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43524</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43434</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43343</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43251</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43159</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,8 +1879,9 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1832,8 +1918,11 @@
       <c r="N41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,25 +1959,28 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
@@ -1908,8 +2000,11 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1946,8 +2041,11 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1984,25 +2082,28 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>4</v>
+      <c r="D46" s="3">
+        <v>0</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>4</v>
+      <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
+        <v>0</v>
       </c>
       <c r="I46" s="3">
         <v>0</v>
@@ -2022,8 +2123,11 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2060,8 +2164,11 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2098,8 +2205,11 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2136,8 +2246,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,8 +2328,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2250,8 +2369,11 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,8 +2410,11 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2326,8 +2451,11 @@
       <c r="N54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,8 +2487,9 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2396,8 +2526,11 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2416,8 +2549,8 @@
       <c r="H58" s="3">
         <v>100</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
+      <c r="I58" s="3">
+        <v>100</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>4</v>
@@ -2434,8 +2567,11 @@
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2455,7 +2591,7 @@
         <v>0</v>
       </c>
       <c r="I59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J59" s="3">
         <v>100</v>
@@ -2467,13 +2603,16 @@
         <v>100</v>
       </c>
       <c r="M59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2481,7 +2620,7 @@
         <v>200</v>
       </c>
       <c r="E60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F60" s="3">
         <v>100</v>
@@ -2508,10 +2647,13 @@
         <v>100</v>
       </c>
       <c r="N60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2548,8 +2690,11 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2586,8 +2731,11 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,8 +2854,11 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2709,7 +2866,7 @@
         <v>200</v>
       </c>
       <c r="E66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F66" s="3">
         <v>100</v>
@@ -2736,10 +2893,13 @@
         <v>100</v>
       </c>
       <c r="N66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="O66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,8 +3076,11 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2915,13 +3088,13 @@
         <v>-38900</v>
       </c>
       <c r="E72" s="3">
-        <v>-38800</v>
+        <v>-38900</v>
       </c>
       <c r="F72" s="3">
         <v>-38800</v>
       </c>
       <c r="G72" s="3">
-        <v>-200</v>
+        <v>-38800</v>
       </c>
       <c r="H72" s="3">
         <v>-200</v>
@@ -2933,7 +3106,7 @@
         <v>-200</v>
       </c>
       <c r="K72" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="L72" s="3">
         <v>-100</v>
@@ -2944,8 +3117,11 @@
       <c r="N72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,8 +3240,11 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3067,7 +3252,7 @@
         <v>-200</v>
       </c>
       <c r="E76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F76" s="3">
         <v>-100</v>
@@ -3091,13 +3276,16 @@
         <v>-100</v>
       </c>
       <c r="M76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,51 +3322,57 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E80" s="2">
         <v>44074</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43982</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43890</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43799</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43708</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43616</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43524</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43434</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43343</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43251</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43159</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3186,20 +3380,20 @@
         <v>0</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-38500</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
         <v>0</v>
       </c>
@@ -3215,8 +3409,11 @@
       <c r="N81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,8 +3428,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3269,8 +3467,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,8 +3672,11 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3497,8 +3713,11 @@
       <c r="N89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,8 +3732,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3551,8 +3771,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,8 +3853,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3665,8 +3894,11 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,8 +4075,11 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3871,8 +4116,11 @@
       <c r="N100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3909,8 +4157,11 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3945,6 +4196,9 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LAAB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LAAB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
   <si>
     <t>LAAB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,70 +665,74 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E7" s="2">
         <v>44165</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44074</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43982</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43890</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43799</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43708</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43616</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43524</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43434</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43343</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43251</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43159</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -768,8 +772,11 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -809,8 +816,11 @@
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -850,8 +860,11 @@
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,8 +880,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -908,8 +922,11 @@
       <c r="O12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,8 +966,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -984,14 +1004,17 @@
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1031,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,8 +1071,9 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1060,11 +1087,11 @@
         <v>0</v>
       </c>
       <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
         <v>38500</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
       <c r="I17" s="3">
         <v>0</v>
       </c>
@@ -1086,8 +1113,11 @@
       <c r="O17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1101,11 +1131,11 @@
         <v>0</v>
       </c>
       <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>-38500</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
         <v>0</v>
       </c>
@@ -1127,8 +1157,11 @@
       <c r="O18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,8 +1177,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1185,8 +1219,11 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1226,8 +1263,11 @@
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1238,37 +1278,40 @@
         <v>0</v>
       </c>
       <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
+      <c r="M22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1279,20 +1322,20 @@
         <v>0</v>
       </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-38500</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
         <v>0</v>
       </c>
@@ -1308,8 +1351,11 @@
       <c r="O23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1349,8 +1395,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,8 +1439,11 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1402,20 +1454,20 @@
         <v>0</v>
       </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-38500</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
         <v>0</v>
       </c>
@@ -1431,8 +1483,11 @@
       <c r="O26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1443,20 +1498,20 @@
         <v>0</v>
       </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-38500</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
         <v>0</v>
       </c>
@@ -1472,8 +1527,11 @@
       <c r="O27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1524,8 +1585,8 @@
       <c r="E29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -1554,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,8 +1703,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1677,8 +1747,11 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1689,20 +1762,20 @@
         <v>0</v>
       </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-38500</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
         <v>0</v>
       </c>
@@ -1718,8 +1791,11 @@
       <c r="O33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,8 +1835,11 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1771,20 +1850,20 @@
         <v>0</v>
       </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-38500</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
         <v>0</v>
       </c>
@@ -1800,54 +1879,60 @@
       <c r="O35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E38" s="2">
         <v>44165</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44074</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43982</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43890</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43799</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43708</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43616</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43524</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43434</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43343</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43251</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43159</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,8 +1966,9 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1921,8 +2008,11 @@
       <c r="O41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1962,8 +2052,11 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2003,8 +2096,11 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2044,8 +2140,11 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2085,8 +2184,11 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2126,8 +2228,11 @@
       <c r="O46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2167,8 +2272,11 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2208,31 +2316,34 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
         <v>0</v>
       </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+      <c r="E49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -2249,8 +2360,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,8 +2448,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2372,8 +2492,11 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,8 +2536,11 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2454,8 +2580,11 @@
       <c r="O54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,8 +2618,9 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2529,8 +2660,11 @@
       <c r="O57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2552,8 +2686,8 @@
       <c r="I58" s="3">
         <v>100</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
+      <c r="J58" s="3">
+        <v>100</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>4</v>
@@ -2570,8 +2704,11 @@
       <c r="O58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2594,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="J59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K59" s="3">
         <v>100</v>
@@ -2606,13 +2743,16 @@
         <v>100</v>
       </c>
       <c r="N59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2623,7 +2763,7 @@
         <v>200</v>
       </c>
       <c r="F60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G60" s="3">
         <v>100</v>
@@ -2650,10 +2790,13 @@
         <v>100</v>
       </c>
       <c r="O60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2693,8 +2836,11 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2734,8 +2880,11 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,8 +3012,11 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2869,7 +3027,7 @@
         <v>200</v>
       </c>
       <c r="F66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G66" s="3">
         <v>100</v>
@@ -2896,10 +3054,13 @@
         <v>100</v>
       </c>
       <c r="O66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="P66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,8 +3250,11 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3091,13 +3265,13 @@
         <v>-38900</v>
       </c>
       <c r="F72" s="3">
-        <v>-38800</v>
+        <v>-38900</v>
       </c>
       <c r="G72" s="3">
         <v>-38800</v>
       </c>
       <c r="H72" s="3">
-        <v>-200</v>
+        <v>-38800</v>
       </c>
       <c r="I72" s="3">
         <v>-200</v>
@@ -3109,7 +3283,7 @@
         <v>-200</v>
       </c>
       <c r="L72" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="M72" s="3">
         <v>-100</v>
@@ -3120,8 +3294,11 @@
       <c r="O72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,8 +3426,11 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3255,7 +3441,7 @@
         <v>-200</v>
       </c>
       <c r="F76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="G76" s="3">
         <v>-100</v>
@@ -3279,13 +3465,16 @@
         <v>-100</v>
       </c>
       <c r="N76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,54 +3514,60 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E80" s="2">
         <v>44165</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44074</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43982</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43890</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43799</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43708</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43616</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43524</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43434</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43343</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43251</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43159</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3383,20 +3578,20 @@
         <v>0</v>
       </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-38500</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
         <v>0</v>
       </c>
@@ -3412,8 +3607,11 @@
       <c r="O81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,8 +3627,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3470,8 +3669,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,8 +3889,11 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3716,8 +3933,11 @@
       <c r="O89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,8 +3953,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3774,8 +3995,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,8 +4083,11 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3897,8 +4127,11 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,8 +4321,11 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4119,8 +4365,11 @@
       <c r="O100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4160,8 +4409,11 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4199,6 +4451,9 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LAAB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LAAB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
   <si>
     <t>LAAB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,78 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44347</v>
+      </c>
+      <c r="E7" s="2">
         <v>44255</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44165</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44074</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43982</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43890</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43799</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43708</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43616</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43524</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43434</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43343</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43251</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43159</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -775,8 +779,11 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -819,8 +826,11 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +873,11 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,31 +986,34 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
@@ -1007,14 +1027,17 @@
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,8 +1098,9 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1090,11 +1117,11 @@
         <v>0</v>
       </c>
       <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
         <v>38500</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
       <c r="J17" s="3">
         <v>0</v>
       </c>
@@ -1116,8 +1143,11 @@
       <c r="P17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1134,11 +1164,11 @@
         <v>0</v>
       </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>-38500</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
         <v>0</v>
       </c>
@@ -1160,8 +1190,11 @@
       <c r="P18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1211,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1222,8 +1256,11 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1266,8 +1303,11 @@
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1281,37 +1321,40 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L22" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>4</v>
+      <c r="N22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1325,20 +1368,20 @@
         <v>0</v>
       </c>
       <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-38500</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
         <v>0</v>
       </c>
@@ -1354,8 +1397,11 @@
       <c r="P23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1444,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,8 +1491,11 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1457,20 +1509,20 @@
         <v>0</v>
       </c>
       <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-38500</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
         <v>0</v>
       </c>
@@ -1486,8 +1538,11 @@
       <c r="P26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1501,20 +1556,20 @@
         <v>0</v>
       </c>
       <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-38500</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
         <v>0</v>
       </c>
@@ -1530,8 +1585,11 @@
       <c r="P27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1588,8 +1649,8 @@
       <c r="F29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1773,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1750,8 +1820,11 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1765,20 +1838,20 @@
         <v>0</v>
       </c>
       <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-38500</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
         <v>0</v>
       </c>
@@ -1794,8 +1867,11 @@
       <c r="P33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,8 +1914,11 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1853,20 +1932,20 @@
         <v>0</v>
       </c>
       <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-38500</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
         <v>0</v>
       </c>
@@ -1882,57 +1961,63 @@
       <c r="P35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44347</v>
+      </c>
+      <c r="E38" s="2">
         <v>44255</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44165</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44074</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43982</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43890</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43799</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43708</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43616</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43524</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43434</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43343</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43251</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43159</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,8 +2053,9 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2011,8 +2098,11 @@
       <c r="P41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2145,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2099,8 +2192,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2239,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2187,8 +2286,11 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2231,8 +2333,11 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,8 +2380,11 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2319,16 +2427,19 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
         <v>0</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>4</v>
+      <c r="E49" s="3">
+        <v>0</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>4</v>
@@ -2345,8 +2456,8 @@
       <c r="J49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -2363,8 +2474,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2568,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2615,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,8 +2662,11 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2583,8 +2709,11 @@
       <c r="P54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2749,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2663,8 +2794,11 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2689,8 +2823,8 @@
       <c r="J58" s="3">
         <v>100</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
+      <c r="K58" s="3">
+        <v>100</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>4</v>
@@ -2707,13 +2841,16 @@
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E59" s="3">
         <v>0</v>
@@ -2734,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="K59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L59" s="3">
         <v>100</v>
@@ -2746,13 +2883,16 @@
         <v>100</v>
       </c>
       <c r="O59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2766,7 +2906,7 @@
         <v>200</v>
       </c>
       <c r="G60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H60" s="3">
         <v>100</v>
@@ -2793,10 +2933,13 @@
         <v>100</v>
       </c>
       <c r="P60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,8 +2982,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2883,8 +3029,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,8 +3170,11 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3030,7 +3188,7 @@
         <v>200</v>
       </c>
       <c r="G66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H66" s="3">
         <v>100</v>
@@ -3057,10 +3215,13 @@
         <v>100</v>
       </c>
       <c r="P66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,8 +3424,11 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3268,13 +3442,13 @@
         <v>-38900</v>
       </c>
       <c r="G72" s="3">
-        <v>-38800</v>
+        <v>-38900</v>
       </c>
       <c r="H72" s="3">
         <v>-38800</v>
       </c>
       <c r="I72" s="3">
-        <v>-200</v>
+        <v>-38800</v>
       </c>
       <c r="J72" s="3">
         <v>-200</v>
@@ -3286,7 +3460,7 @@
         <v>-200</v>
       </c>
       <c r="M72" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="N72" s="3">
         <v>-100</v>
@@ -3297,8 +3471,11 @@
       <c r="P72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,8 +3612,11 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3444,7 +3630,7 @@
         <v>-200</v>
       </c>
       <c r="G76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="H76" s="3">
         <v>-100</v>
@@ -3468,13 +3654,16 @@
         <v>-100</v>
       </c>
       <c r="O76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,57 +3706,63 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44347</v>
+      </c>
+      <c r="E80" s="2">
         <v>44255</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44165</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44074</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43982</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43890</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43799</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43708</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43616</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43524</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43434</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43343</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43251</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43159</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3581,20 +3776,20 @@
         <v>0</v>
       </c>
       <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-38500</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
         <v>0</v>
       </c>
@@ -3610,8 +3805,11 @@
       <c r="P81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3826,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +3871,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +4106,11 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3936,8 +4153,11 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4174,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4219,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4313,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4130,8 +4360,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4567,11 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4368,8 +4614,11 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,8 +4661,11 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4454,6 +4706,9 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LAAB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LAAB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="92">
   <si>
     <t>LAAB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,82 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E7" s="2">
         <v>44347</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44255</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44165</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44074</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43982</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43890</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43799</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43708</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43616</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43524</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43434</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43343</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43251</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43159</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -782,8 +786,11 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -829,8 +836,11 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -876,8 +886,11 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1006,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1015,8 +1035,8 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
@@ -1030,14 +1050,17 @@
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,8 +1125,9 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1120,11 +1147,11 @@
         <v>0</v>
       </c>
       <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
         <v>38500</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
       <c r="K17" s="3">
         <v>0</v>
       </c>
@@ -1146,8 +1173,11 @@
       <c r="Q17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1167,11 +1197,11 @@
         <v>0</v>
       </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>-38500</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
         <v>0</v>
       </c>
@@ -1193,8 +1223,11 @@
       <c r="Q18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1245,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1259,8 +1293,11 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1306,8 +1343,11 @@
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1324,37 +1364,40 @@
         <v>0</v>
       </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>4</v>
+      <c r="O22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1371,20 +1414,20 @@
         <v>0</v>
       </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-38500</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
         <v>0</v>
       </c>
@@ -1400,8 +1443,11 @@
       <c r="Q23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1447,8 +1493,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,8 +1543,11 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1512,20 +1564,20 @@
         <v>0</v>
       </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-38500</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
         <v>0</v>
       </c>
@@ -1541,8 +1593,11 @@
       <c r="Q26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1559,20 +1614,20 @@
         <v>0</v>
       </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-38500</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
         <v>0</v>
       </c>
@@ -1588,8 +1643,11 @@
       <c r="Q27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1652,8 +1713,8 @@
       <c r="G29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1843,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1823,8 +1893,11 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1841,20 +1914,20 @@
         <v>0</v>
       </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-38500</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
         <v>0</v>
       </c>
@@ -1870,8 +1943,11 @@
       <c r="Q33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,8 +1993,11 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1935,20 +2014,20 @@
         <v>0</v>
       </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-38500</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
         <v>0</v>
       </c>
@@ -1964,60 +2043,66 @@
       <c r="Q35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E38" s="2">
         <v>44347</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44255</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44165</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44074</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43982</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43890</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43799</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43708</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43616</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43524</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43434</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43343</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43251</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43159</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,8 +2140,9 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2101,8 +2188,11 @@
       <c r="Q41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,8 +2238,11 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2195,8 +2288,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,8 +2338,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2289,8 +2388,11 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2336,8 +2438,11 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,8 +2488,11 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2430,8 +2538,11 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2441,8 +2552,8 @@
       <c r="E49" s="3">
         <v>0</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
+      <c r="F49" s="3">
+        <v>0</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>4</v>
@@ -2459,8 +2570,8 @@
       <c r="K49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
@@ -2477,8 +2588,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2688,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2618,8 +2738,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,8 +2788,11 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2712,8 +2838,11 @@
       <c r="Q54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,8 +2880,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2797,8 +2928,11 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2826,8 +2960,8 @@
       <c r="K58" s="3">
         <v>100</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
+      <c r="L58" s="3">
+        <v>100</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>4</v>
@@ -2844,8 +2978,11 @@
       <c r="Q58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2853,7 +2990,7 @@
         <v>100</v>
       </c>
       <c r="E59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
@@ -2874,7 +3011,7 @@
         <v>0</v>
       </c>
       <c r="L59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M59" s="3">
         <v>100</v>
@@ -2886,13 +3023,16 @@
         <v>100</v>
       </c>
       <c r="P59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2909,7 +3049,7 @@
         <v>200</v>
       </c>
       <c r="H60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I60" s="3">
         <v>100</v>
@@ -2936,10 +3076,13 @@
         <v>100</v>
       </c>
       <c r="Q60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2985,8 +3128,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3032,8 +3178,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,8 +3328,11 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3191,7 +3349,7 @@
         <v>200</v>
       </c>
       <c r="H66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I66" s="3">
         <v>100</v>
@@ -3218,10 +3376,13 @@
         <v>100</v>
       </c>
       <c r="Q66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="R66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,8 +3598,11 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3445,13 +3619,13 @@
         <v>-38900</v>
       </c>
       <c r="H72" s="3">
-        <v>-38800</v>
+        <v>-38900</v>
       </c>
       <c r="I72" s="3">
         <v>-38800</v>
       </c>
       <c r="J72" s="3">
-        <v>-200</v>
+        <v>-38800</v>
       </c>
       <c r="K72" s="3">
         <v>-200</v>
@@ -3463,7 +3637,7 @@
         <v>-200</v>
       </c>
       <c r="N72" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="O72" s="3">
         <v>-100</v>
@@ -3474,8 +3648,11 @@
       <c r="Q72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,8 +3798,11 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3633,7 +3819,7 @@
         <v>-200</v>
       </c>
       <c r="H76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="I76" s="3">
         <v>-100</v>
@@ -3657,13 +3843,16 @@
         <v>-100</v>
       </c>
       <c r="P76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,60 +3898,66 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E80" s="2">
         <v>44347</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44255</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44165</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44074</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43982</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43890</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43799</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43708</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43616</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43524</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43434</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43343</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43251</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43159</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3779,20 +3974,20 @@
         <v>0</v>
       </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-38500</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
         <v>0</v>
       </c>
@@ -3808,8 +4003,11 @@
       <c r="Q81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4025,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3874,8 +4073,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,8 +4323,11 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4156,8 +4373,11 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4395,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4222,8 +4443,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,8 +4543,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4363,8 +4593,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,8 +4813,11 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4617,8 +4863,11 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,8 +4913,11 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4709,6 +4961,9 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LAAB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LAAB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
   <si>
     <t>LAAB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,82 +665,85 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E7" s="2">
         <v>44439</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44347</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44255</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44165</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44074</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43982</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43890</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43799</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43708</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43616</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43524</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43434</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43343</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43251</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43159</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -789,8 +792,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -839,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -889,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -959,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1038,8 +1057,8 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
@@ -1053,14 +1072,17 @@
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,8 +1151,9 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1150,11 +1176,11 @@
         <v>0</v>
       </c>
       <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
         <v>38500</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
       <c r="L17" s="3">
         <v>0</v>
       </c>
@@ -1176,8 +1202,11 @@
       <c r="R17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1200,11 +1229,11 @@
         <v>0</v>
       </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-38500</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
         <v>0</v>
       </c>
@@ -1226,8 +1255,11 @@
       <c r="R18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1296,8 +1329,11 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1346,8 +1382,11 @@
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1367,37 +1406,40 @@
         <v>0</v>
       </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N22" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>4</v>
+      <c r="P22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1417,20 +1459,20 @@
         <v>0</v>
       </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-38500</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
         <v>0</v>
       </c>
@@ -1446,8 +1488,11 @@
       <c r="R23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1496,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,8 +1594,11 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1567,20 +1618,20 @@
         <v>0</v>
       </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-38500</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
         <v>0</v>
       </c>
@@ -1596,8 +1647,11 @@
       <c r="R26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1617,20 +1671,20 @@
         <v>0</v>
       </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-38500</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
         <v>0</v>
       </c>
@@ -1646,8 +1700,11 @@
       <c r="R27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1716,8 +1776,8 @@
       <c r="H29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -1746,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1896,8 +1965,11 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1917,20 +1989,20 @@
         <v>0</v>
       </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-38500</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
         <v>0</v>
       </c>
@@ -1946,8 +2018,11 @@
       <c r="R33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,8 +2071,11 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2017,20 +2095,20 @@
         <v>0</v>
       </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-38500</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
         <v>0</v>
       </c>
@@ -2046,63 +2124,69 @@
       <c r="R35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E38" s="2">
         <v>44439</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44347</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44255</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44165</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44074</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43982</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43890</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43799</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43708</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43616</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43524</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43434</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43343</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43251</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43159</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,8 +2226,9 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2191,8 +2277,11 @@
       <c r="R41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,8 +2330,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2291,8 +2383,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2341,8 +2436,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2391,8 +2489,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2441,8 +2542,11 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,8 +2595,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2541,8 +2648,11 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2555,8 +2665,8 @@
       <c r="F49" s="3">
         <v>0</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>4</v>
+      <c r="G49" s="3">
+        <v>0</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>4</v>
@@ -2573,8 +2683,8 @@
       <c r="L49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -2591,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2741,8 +2860,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,8 +2913,11 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2841,8 +2966,11 @@
       <c r="R54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,8 +3010,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2931,8 +3061,11 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2963,8 +3096,8 @@
       <c r="L58" s="3">
         <v>100</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
+      <c r="M58" s="3">
+        <v>100</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>4</v>
@@ -2981,8 +3114,11 @@
       <c r="R58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2993,7 +3129,7 @@
         <v>100</v>
       </c>
       <c r="F59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G59" s="3">
         <v>0</v>
@@ -3014,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="M59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N59" s="3">
         <v>100</v>
@@ -3026,13 +3162,16 @@
         <v>100</v>
       </c>
       <c r="Q59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3052,7 +3191,7 @@
         <v>200</v>
       </c>
       <c r="I60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J60" s="3">
         <v>100</v>
@@ -3079,10 +3218,13 @@
         <v>100</v>
       </c>
       <c r="R60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3131,8 +3273,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3181,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,8 +3485,11 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3352,7 +3509,7 @@
         <v>200</v>
       </c>
       <c r="I66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J66" s="3">
         <v>100</v>
@@ -3379,10 +3536,13 @@
         <v>100</v>
       </c>
       <c r="R66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,8 +3771,11 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3622,13 +3795,13 @@
         <v>-38900</v>
       </c>
       <c r="I72" s="3">
-        <v>-38800</v>
+        <v>-38900</v>
       </c>
       <c r="J72" s="3">
         <v>-38800</v>
       </c>
       <c r="K72" s="3">
-        <v>-200</v>
+        <v>-38800</v>
       </c>
       <c r="L72" s="3">
         <v>-200</v>
@@ -3640,7 +3813,7 @@
         <v>-200</v>
       </c>
       <c r="O72" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="P72" s="3">
         <v>-100</v>
@@ -3651,8 +3824,11 @@
       <c r="R72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,8 +3983,11 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3822,7 +4007,7 @@
         <v>-200</v>
       </c>
       <c r="I76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="J76" s="3">
         <v>-100</v>
@@ -3846,13 +4031,16 @@
         <v>-100</v>
       </c>
       <c r="Q76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,63 +4089,69 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E80" s="2">
         <v>44439</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44347</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44255</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44165</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44074</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43982</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43890</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43799</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43708</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43616</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43524</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43434</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43343</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43251</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43159</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3977,20 +4171,20 @@
         <v>0</v>
       </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-38500</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
         <v>0</v>
       </c>
@@ -4006,8 +4200,11 @@
       <c r="R81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4076,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,8 +4539,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4376,8 +4592,11 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4446,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4596,8 +4825,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,8 +5058,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4866,8 +5111,11 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,8 +5164,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4964,6 +5215,9 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LAAB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LAAB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
   <si>
     <t>LAAB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E7" s="2">
         <v>44530</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44439</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44347</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44255</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44165</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44074</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43982</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43890</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43799</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43708</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43616</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43524</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43434</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43343</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43251</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43159</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -795,8 +799,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -848,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1060,8 +1080,8 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
@@ -1075,14 +1095,17 @@
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,8 +1178,9 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1179,11 +1206,11 @@
         <v>0</v>
       </c>
       <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
         <v>38500</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
       <c r="M17" s="3">
         <v>0</v>
       </c>
@@ -1205,8 +1232,11 @@
       <c r="S17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1232,11 +1262,11 @@
         <v>0</v>
       </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>-38500</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
         <v>0</v>
       </c>
@@ -1258,8 +1288,11 @@
       <c r="S18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1332,8 +1366,11 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1385,8 +1422,11 @@
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1409,37 +1449,40 @@
         <v>0</v>
       </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>100</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O22" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>4</v>
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1462,20 +1505,20 @@
         <v>0</v>
       </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-38500</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
         <v>0</v>
       </c>
@@ -1491,8 +1534,11 @@
       <c r="S23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,8 +1646,11 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1621,20 +1673,20 @@
         <v>0</v>
       </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-38500</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
         <v>0</v>
       </c>
@@ -1650,8 +1702,11 @@
       <c r="S26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1674,20 +1729,20 @@
         <v>0</v>
       </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-38500</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
         <v>0</v>
       </c>
@@ -1703,8 +1758,11 @@
       <c r="S27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1779,8 +1840,8 @@
       <c r="I29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="J29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1968,8 +2038,11 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1992,20 +2065,20 @@
         <v>0</v>
       </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-38500</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
         <v>0</v>
       </c>
@@ -2021,8 +2094,11 @@
       <c r="S33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,8 +2150,11 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2098,20 +2177,20 @@
         <v>0</v>
       </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-38500</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
         <v>0</v>
       </c>
@@ -2127,66 +2206,72 @@
       <c r="S35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E38" s="2">
         <v>44530</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44439</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44347</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44255</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44165</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44074</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43982</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43890</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43799</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43708</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43616</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43524</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43434</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43343</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43251</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43159</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,8 +2313,9 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2280,8 +2367,11 @@
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2492,8 +2591,11 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2545,8 +2647,11 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,8 +2703,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2651,8 +2759,11 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2668,8 +2779,8 @@
       <c r="G49" s="3">
         <v>0</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>4</v>
+      <c r="H49" s="3">
+        <v>0</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>4</v>
@@ -2686,8 +2797,8 @@
       <c r="M49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,8 +3039,11 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2969,8 +3095,11 @@
       <c r="S54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3064,8 +3195,11 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3099,8 +3233,8 @@
       <c r="M58" s="3">
         <v>100</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
+      <c r="N58" s="3">
+        <v>100</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>4</v>
@@ -3117,8 +3251,11 @@
       <c r="S58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3132,7 +3269,7 @@
         <v>100</v>
       </c>
       <c r="G59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H59" s="3">
         <v>0</v>
@@ -3153,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="N59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O59" s="3">
         <v>100</v>
@@ -3165,13 +3302,16 @@
         <v>100</v>
       </c>
       <c r="R59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3194,7 +3334,7 @@
         <v>200</v>
       </c>
       <c r="J60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K60" s="3">
         <v>100</v>
@@ -3221,10 +3361,13 @@
         <v>100</v>
       </c>
       <c r="S60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,8 +3643,11 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3512,7 +3670,7 @@
         <v>200</v>
       </c>
       <c r="J66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K66" s="3">
         <v>100</v>
@@ -3539,10 +3697,13 @@
         <v>100</v>
       </c>
       <c r="S66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,13 +3945,16 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-38900</v>
+        <v>-39000</v>
       </c>
       <c r="E72" s="3">
         <v>-38900</v>
@@ -3798,13 +3972,13 @@
         <v>-38900</v>
       </c>
       <c r="J72" s="3">
-        <v>-38800</v>
+        <v>-38900</v>
       </c>
       <c r="K72" s="3">
         <v>-38800</v>
       </c>
       <c r="L72" s="3">
-        <v>-200</v>
+        <v>-38800</v>
       </c>
       <c r="M72" s="3">
         <v>-200</v>
@@ -3816,7 +3990,7 @@
         <v>-200</v>
       </c>
       <c r="P72" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Q72" s="3">
         <v>-100</v>
@@ -3827,8 +4001,11 @@
       <c r="S72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,8 +4169,11 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4010,7 +4196,7 @@
         <v>-200</v>
       </c>
       <c r="J76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="K76" s="3">
         <v>-100</v>
@@ -4034,13 +4220,16 @@
         <v>-100</v>
       </c>
       <c r="R76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,66 +4281,72 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E80" s="2">
         <v>44530</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44439</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44347</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44255</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44165</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44074</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43982</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43890</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43799</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43708</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43616</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43524</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43434</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43343</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43251</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43159</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4174,20 +4369,20 @@
         <v>0</v>
       </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-38500</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
         <v>0</v>
       </c>
@@ -4203,8 +4398,11 @@
       <c r="S81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,8 +4756,11 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4595,8 +4812,11 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5304,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5114,8 +5360,11 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5416,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5218,6 +5470,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LAAB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LAAB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="92">
   <si>
     <t>LAAB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,93 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44712</v>
+      </c>
+      <c r="E7" s="2">
         <v>44620</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44530</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44439</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44347</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44255</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44165</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44074</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43982</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43890</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43799</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43708</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43616</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43524</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43434</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43343</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43251</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43159</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -802,8 +806,11 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -858,8 +865,11 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +924,11 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1065,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1083,8 +1103,8 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
@@ -1098,14 +1118,17 @@
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,8 +1205,9 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1209,11 +1236,11 @@
         <v>0</v>
       </c>
       <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
         <v>38500</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
       <c r="N17" s="3">
         <v>0</v>
       </c>
@@ -1235,8 +1262,11 @@
       <c r="T17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1265,11 +1295,11 @@
         <v>0</v>
       </c>
       <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>-38500</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
         <v>0</v>
       </c>
@@ -1291,8 +1321,11 @@
       <c r="T18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1346,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1369,8 +1403,11 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1425,8 +1462,11 @@
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1452,37 +1492,40 @@
         <v>0</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
       <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P22" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>4</v>
+      <c r="R22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1508,20 +1551,20 @@
         <v>0</v>
       </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-38500</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
         <v>0</v>
       </c>
@@ -1537,8 +1580,11 @@
       <c r="T23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1639,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,8 +1698,11 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1676,20 +1728,20 @@
         <v>0</v>
       </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-38500</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
         <v>0</v>
       </c>
@@ -1705,8 +1757,11 @@
       <c r="T26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1732,20 +1787,20 @@
         <v>0</v>
       </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-38500</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
         <v>0</v>
       </c>
@@ -1761,8 +1816,11 @@
       <c r="T27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,34 +1875,37 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2052,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2041,8 +2111,11 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2068,20 +2141,20 @@
         <v>0</v>
       </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-38500</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
         <v>0</v>
       </c>
@@ -2097,8 +2170,11 @@
       <c r="T33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,8 +2229,11 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2180,20 +2259,20 @@
         <v>0</v>
       </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-38500</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
         <v>0</v>
       </c>
@@ -2209,69 +2288,75 @@
       <c r="T35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44712</v>
+      </c>
+      <c r="E38" s="2">
         <v>44620</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44530</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44439</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44347</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44255</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44165</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44074</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43982</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43890</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43799</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43708</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43616</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43524</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43434</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43343</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43251</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43159</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,8 +2400,9 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2370,8 +2457,11 @@
       <c r="T41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2516,11 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2482,8 +2575,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2634,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2594,8 +2693,11 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2650,8 +2752,11 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,8 +2811,11 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2762,8 +2870,11 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2782,8 +2893,8 @@
       <c r="H49" s="3">
         <v>0</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>4</v>
+      <c r="I49" s="3">
+        <v>0</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>4</v>
@@ -2800,8 +2911,8 @@
       <c r="N49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
@@ -2818,8 +2929,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3047,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3106,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,8 +3165,11 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3098,8 +3224,11 @@
       <c r="T54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3272,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3198,8 +3329,11 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3236,8 +3370,8 @@
       <c r="N58" s="3">
         <v>100</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
+      <c r="O58" s="3">
+        <v>100</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>4</v>
@@ -3254,8 +3388,11 @@
       <c r="T58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3272,7 +3409,7 @@
         <v>100</v>
       </c>
       <c r="H59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I59" s="3">
         <v>0</v>
@@ -3293,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="O59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P59" s="3">
         <v>100</v>
@@ -3305,13 +3442,16 @@
         <v>100</v>
       </c>
       <c r="S59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3337,7 +3477,7 @@
         <v>200</v>
       </c>
       <c r="K60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L60" s="3">
         <v>100</v>
@@ -3364,10 +3504,13 @@
         <v>100</v>
       </c>
       <c r="T60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,8 +3565,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3478,8 +3624,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,8 +3801,11 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3673,7 +3831,7 @@
         <v>200</v>
       </c>
       <c r="K66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L66" s="3">
         <v>100</v>
@@ -3700,10 +3858,13 @@
         <v>100</v>
       </c>
       <c r="T66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,8 +4119,11 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3957,7 +4131,7 @@
         <v>-39000</v>
       </c>
       <c r="E72" s="3">
-        <v>-38900</v>
+        <v>-39000</v>
       </c>
       <c r="F72" s="3">
         <v>-38900</v>
@@ -3975,13 +4149,13 @@
         <v>-38900</v>
       </c>
       <c r="K72" s="3">
-        <v>-38800</v>
+        <v>-38900</v>
       </c>
       <c r="L72" s="3">
         <v>-38800</v>
       </c>
       <c r="M72" s="3">
-        <v>-200</v>
+        <v>-38800</v>
       </c>
       <c r="N72" s="3">
         <v>-200</v>
@@ -3993,7 +4167,7 @@
         <v>-200</v>
       </c>
       <c r="Q72" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="R72" s="3">
         <v>-100</v>
@@ -4004,8 +4178,11 @@
       <c r="T72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,8 +4355,11 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4199,7 +4385,7 @@
         <v>-200</v>
       </c>
       <c r="K76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="L76" s="3">
         <v>-100</v>
@@ -4223,13 +4409,16 @@
         <v>-100</v>
       </c>
       <c r="S76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,69 +4473,75 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44712</v>
+      </c>
+      <c r="E80" s="2">
         <v>44620</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44530</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44439</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44347</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44255</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44165</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44074</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43982</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43890</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43799</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43708</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43616</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43524</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43434</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43343</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43251</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43159</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4372,20 +4567,20 @@
         <v>0</v>
       </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-38500</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
         <v>0</v>
       </c>
@@ -4401,8 +4596,11 @@
       <c r="T81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4621,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4678,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +4973,11 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4815,8 +5032,11 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5057,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4893,8 +5114,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5232,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5061,8 +5291,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5550,11 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5363,8 +5609,11 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,8 +5668,11 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5473,6 +5725,9 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LAAB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LAAB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
   <si>
     <t>LAAB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,93 +665,97 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44804</v>
+      </c>
+      <c r="E7" s="2">
         <v>44712</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44620</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44530</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44439</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44347</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44255</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44165</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44074</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43982</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43890</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43799</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43708</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43616</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43524</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43434</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43343</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43251</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43159</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -809,8 +813,11 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -868,8 +875,11 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -927,8 +937,11 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,8 +963,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,8 +1023,11 @@
       <c r="U12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,8 +1085,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1106,8 +1126,8 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
@@ -1121,14 +1141,17 @@
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1209,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,8 +1232,9 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1239,11 +1266,11 @@
         <v>0</v>
       </c>
       <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
         <v>38500</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
       <c r="O17" s="3">
         <v>0</v>
       </c>
@@ -1265,8 +1292,11 @@
       <c r="U17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1298,11 +1328,11 @@
         <v>0</v>
       </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-38500</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
         <v>0</v>
       </c>
@@ -1324,8 +1354,11 @@
       <c r="U18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,8 +1380,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1406,8 +1440,11 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1465,8 +1502,11 @@
       <c r="U21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1495,37 +1535,40 @@
         <v>0</v>
       </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
       <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
         <v>100</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q22" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>4</v>
+      <c r="S22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1554,20 +1597,20 @@
         <v>0</v>
       </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-38500</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
         <v>0</v>
       </c>
@@ -1583,8 +1626,11 @@
       <c r="U23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1642,8 +1688,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,8 +1750,11 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1731,20 +1783,20 @@
         <v>0</v>
       </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-38500</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
         <v>0</v>
       </c>
@@ -1760,8 +1812,11 @@
       <c r="U26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1790,20 +1845,20 @@
         <v>0</v>
       </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-38500</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
         <v>0</v>
       </c>
@@ -1819,8 +1874,11 @@
       <c r="U27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1904,11 +1965,11 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,8 +2122,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2114,8 +2184,11 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2144,20 +2217,20 @@
         <v>0</v>
       </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-38500</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
         <v>0</v>
       </c>
@@ -2173,8 +2246,11 @@
       <c r="U33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,8 +2308,11 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2262,20 +2341,20 @@
         <v>0</v>
       </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-38500</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
         <v>0</v>
       </c>
@@ -2291,72 +2370,78 @@
       <c r="U35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44804</v>
+      </c>
+      <c r="E38" s="2">
         <v>44712</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44620</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44530</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44439</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44347</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44255</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44165</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44074</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43982</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43890</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43799</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43708</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43616</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43524</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43434</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43343</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43251</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43159</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,8 +2487,9 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2460,8 +2547,11 @@
       <c r="U41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,8 +2609,11 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2578,8 +2671,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,8 +2733,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2696,8 +2795,11 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2755,8 +2857,11 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,8 +2919,11 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2873,8 +2981,11 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2896,8 +3007,8 @@
       <c r="I49" s="3">
         <v>0</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>4</v>
+      <c r="J49" s="3">
+        <v>0</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>4</v>
@@ -2914,8 +3025,8 @@
       <c r="O49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P49" s="3">
-        <v>0</v>
+      <c r="P49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
@@ -2932,8 +3043,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,8 +3167,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3109,8 +3229,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,8 +3291,11 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3227,8 +3353,11 @@
       <c r="U54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,8 +3403,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3332,8 +3463,11 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3373,8 +3507,8 @@
       <c r="O58" s="3">
         <v>100</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
+      <c r="P58" s="3">
+        <v>100</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>4</v>
@@ -3391,8 +3525,11 @@
       <c r="U58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3412,7 +3549,7 @@
         <v>100</v>
       </c>
       <c r="I59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J59" s="3">
         <v>0</v>
@@ -3433,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="P59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q59" s="3">
         <v>100</v>
@@ -3445,18 +3582,21 @@
         <v>100</v>
       </c>
       <c r="T59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E60" s="3">
         <v>200</v>
@@ -3480,7 +3620,7 @@
         <v>200</v>
       </c>
       <c r="L60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M60" s="3">
         <v>100</v>
@@ -3507,10 +3647,13 @@
         <v>100</v>
       </c>
       <c r="U60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3568,8 +3711,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3627,8 +3773,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,13 +3959,16 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E66" s="3">
         <v>200</v>
@@ -3834,7 +3992,7 @@
         <v>200</v>
       </c>
       <c r="L66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M66" s="3">
         <v>100</v>
@@ -3861,10 +4019,13 @@
         <v>100</v>
       </c>
       <c r="U66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="V66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,8 +4293,11 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4134,7 +4308,7 @@
         <v>-39000</v>
       </c>
       <c r="F72" s="3">
-        <v>-38900</v>
+        <v>-39000</v>
       </c>
       <c r="G72" s="3">
         <v>-38900</v>
@@ -4152,13 +4326,13 @@
         <v>-38900</v>
       </c>
       <c r="L72" s="3">
-        <v>-38800</v>
+        <v>-38900</v>
       </c>
       <c r="M72" s="3">
         <v>-38800</v>
       </c>
       <c r="N72" s="3">
-        <v>-200</v>
+        <v>-38800</v>
       </c>
       <c r="O72" s="3">
         <v>-200</v>
@@ -4170,7 +4344,7 @@
         <v>-200</v>
       </c>
       <c r="R72" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="S72" s="3">
         <v>-100</v>
@@ -4181,8 +4355,11 @@
       <c r="U72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,13 +4541,16 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="E76" s="3">
         <v>-200</v>
@@ -4388,7 +4574,7 @@
         <v>-200</v>
       </c>
       <c r="L76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="M76" s="3">
         <v>-100</v>
@@ -4412,13 +4598,16 @@
         <v>-100</v>
       </c>
       <c r="T76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,72 +4665,78 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44804</v>
+      </c>
+      <c r="E80" s="2">
         <v>44712</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44620</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44530</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44439</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44347</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44255</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44165</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44074</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43982</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43890</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43799</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43708</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43616</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43524</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43434</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43343</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43251</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43159</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4570,20 +4765,20 @@
         <v>0</v>
       </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-38500</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
         <v>0</v>
       </c>
@@ -4599,8 +4794,11 @@
       <c r="U81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +4820,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4681,8 +4880,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,8 +5190,11 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5035,8 +5252,11 @@
       <c r="U89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,8 +5278,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5117,8 +5338,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,8 +5462,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5294,8 +5524,11 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,8 +5796,11 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5612,8 +5858,11 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,8 +5920,11 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5728,6 +5980,9 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LAAB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LAAB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="92">
   <si>
     <t>LAAB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,97 +665,100 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44895</v>
+      </c>
+      <c r="E7" s="2">
         <v>44804</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44712</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44620</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44530</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44439</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44347</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44255</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44165</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44074</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43982</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43890</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43799</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43708</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43616</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43524</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43434</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43343</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43251</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43159</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -816,8 +819,11 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -878,8 +884,11 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -940,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1026,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1129,8 +1148,8 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
@@ -1144,14 +1163,17 @@
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1212,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,8 +1258,9 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1269,11 +1295,11 @@
         <v>0</v>
       </c>
       <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
         <v>38500</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
       <c r="P17" s="3">
         <v>0</v>
       </c>
@@ -1295,8 +1321,11 @@
       <c r="V17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1331,11 +1360,11 @@
         <v>0</v>
       </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>-38500</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
         <v>0</v>
       </c>
@@ -1357,8 +1386,11 @@
       <c r="V18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1443,8 +1476,11 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1505,8 +1541,11 @@
       <c r="V21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1538,37 +1577,40 @@
         <v>0</v>
       </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>100</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
       <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
         <v>100</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R22" s="3" t="s">
         <v>4</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
-      <c r="U22" s="3" t="s">
-        <v>4</v>
+      <c r="T22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1600,20 +1642,20 @@
         <v>0</v>
       </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-38500</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
         <v>0</v>
       </c>
@@ -1629,8 +1671,11 @@
       <c r="V23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1691,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,8 +1801,11 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1786,20 +1837,20 @@
         <v>0</v>
       </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-38500</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
         <v>0</v>
       </c>
@@ -1815,8 +1866,11 @@
       <c r="V26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1848,20 +1902,20 @@
         <v>0</v>
       </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-38500</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
         <v>0</v>
       </c>
@@ -1877,8 +1931,11 @@
       <c r="V27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1968,11 +2028,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
@@ -2001,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2187,8 +2256,11 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2220,20 +2292,20 @@
         <v>0</v>
       </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-38500</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
         <v>0</v>
       </c>
@@ -2249,8 +2321,11 @@
       <c r="V33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,8 +2386,11 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2344,20 +2422,20 @@
         <v>0</v>
       </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-38500</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
         <v>0</v>
       </c>
@@ -2373,75 +2451,81 @@
       <c r="V35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44895</v>
+      </c>
+      <c r="E38" s="2">
         <v>44804</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44712</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44620</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44530</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44439</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44347</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44255</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44165</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44074</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43982</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43890</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43799</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43708</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43616</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43524</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43434</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43343</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43251</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43159</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,8 +2573,9 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2550,8 +2636,11 @@
       <c r="V41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2612,8 +2701,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2674,8 +2766,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2736,8 +2831,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2798,8 +2896,11 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2860,8 +2961,11 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2922,8 +3026,11 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2984,8 +3091,11 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3010,8 +3120,8 @@
       <c r="J49" s="3">
         <v>0</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>4</v>
+      <c r="K49" s="3">
+        <v>0</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>4</v>
@@ -3028,8 +3138,8 @@
       <c r="P49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q49" s="3">
-        <v>0</v>
+      <c r="Q49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R49" s="3">
         <v>0</v>
@@ -3046,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3232,8 +3351,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,8 +3416,11 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3356,8 +3481,11 @@
       <c r="V54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,8 +3533,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3466,8 +3596,11 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3510,8 +3643,8 @@
       <c r="P58" s="3">
         <v>100</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>4</v>
+      <c r="Q58" s="3">
+        <v>100</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>4</v>
@@ -3528,8 +3661,11 @@
       <c r="V58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3552,7 +3688,7 @@
         <v>100</v>
       </c>
       <c r="J59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
@@ -3573,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="Q59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R59" s="3">
         <v>100</v>
@@ -3585,13 +3721,16 @@
         <v>100</v>
       </c>
       <c r="U59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3599,7 +3738,7 @@
         <v>300</v>
       </c>
       <c r="E60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F60" s="3">
         <v>200</v>
@@ -3623,7 +3762,7 @@
         <v>200</v>
       </c>
       <c r="M60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N60" s="3">
         <v>100</v>
@@ -3650,10 +3789,13 @@
         <v>100</v>
       </c>
       <c r="V60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3714,8 +3856,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3776,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,8 +4116,11 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3971,7 +4128,7 @@
         <v>300</v>
       </c>
       <c r="E66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F66" s="3">
         <v>200</v>
@@ -3995,7 +4152,7 @@
         <v>200</v>
       </c>
       <c r="M66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N66" s="3">
         <v>100</v>
@@ -4022,10 +4179,13 @@
         <v>100</v>
       </c>
       <c r="V66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,8 +4466,11 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4311,7 +4484,7 @@
         <v>-39000</v>
       </c>
       <c r="G72" s="3">
-        <v>-38900</v>
+        <v>-39000</v>
       </c>
       <c r="H72" s="3">
         <v>-38900</v>
@@ -4329,13 +4502,13 @@
         <v>-38900</v>
       </c>
       <c r="M72" s="3">
-        <v>-38800</v>
+        <v>-38900</v>
       </c>
       <c r="N72" s="3">
         <v>-38800</v>
       </c>
       <c r="O72" s="3">
-        <v>-200</v>
+        <v>-38800</v>
       </c>
       <c r="P72" s="3">
         <v>-200</v>
@@ -4347,7 +4520,7 @@
         <v>-200</v>
       </c>
       <c r="S72" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="T72" s="3">
         <v>-100</v>
@@ -4358,8 +4531,11 @@
       <c r="V72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,8 +4726,11 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4553,7 +4738,7 @@
         <v>-300</v>
       </c>
       <c r="E76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="F76" s="3">
         <v>-200</v>
@@ -4577,7 +4762,7 @@
         <v>-200</v>
       </c>
       <c r="M76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="N76" s="3">
         <v>-100</v>
@@ -4601,13 +4786,16 @@
         <v>-100</v>
       </c>
       <c r="U76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,75 +4856,81 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44895</v>
+      </c>
+      <c r="E80" s="2">
         <v>44804</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44712</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44620</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44530</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44439</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44347</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44255</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44165</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44074</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43982</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43890</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43799</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43708</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43616</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43524</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43434</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43343</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43251</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43159</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4768,20 +4962,20 @@
         <v>0</v>
       </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-38500</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
         <v>0</v>
       </c>
@@ -4797,8 +4991,11 @@
       <c r="V81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4883,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,8 +5406,11 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5255,8 +5471,11 @@
       <c r="V89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5341,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5527,8 +5756,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,8 +6041,11 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5861,8 +6106,11 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5923,8 +6171,11 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5983,6 +6234,9 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LAAB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LAAB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="92">
   <si>
     <t>LAAB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,104 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44985</v>
+      </c>
+      <c r="E7" s="2">
         <v>44895</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44804</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44712</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44620</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44530</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44439</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44347</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44255</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44165</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44074</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43982</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43890</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43799</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43708</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43616</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43524</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43434</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43343</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43251</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43159</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -822,8 +826,11 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -887,8 +894,11 @@
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -952,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1151,8 +1171,8 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
@@ -1166,14 +1186,17 @@
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="V14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,8 +1285,9 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1298,11 +1325,11 @@
         <v>0</v>
       </c>
       <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
         <v>38500</v>
       </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
       <c r="Q17" s="3">
         <v>0</v>
       </c>
@@ -1324,8 +1351,11 @@
       <c r="W17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1363,11 +1393,11 @@
         <v>0</v>
       </c>
       <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>-38500</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
       <c r="Q18" s="3">
         <v>0</v>
       </c>
@@ -1389,8 +1419,11 @@
       <c r="W18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1479,8 +1513,11 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1544,8 +1581,11 @@
       <c r="W21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1580,37 +1620,40 @@
         <v>0</v>
       </c>
       <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
       <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
         <v>100</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S22" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
-      </c>
-      <c r="V22" s="3" t="s">
-        <v>4</v>
+      <c r="U22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
       </c>
       <c r="W22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1645,20 +1688,20 @@
         <v>0</v>
       </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-38500</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
         <v>0</v>
       </c>
@@ -1674,8 +1717,11 @@
       <c r="W23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,8 +1853,11 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1840,20 +1892,20 @@
         <v>0</v>
       </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-38500</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
         <v>0</v>
       </c>
@@ -1869,8 +1921,11 @@
       <c r="W26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1905,20 +1960,20 @@
         <v>0</v>
       </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-38500</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
         <v>0</v>
       </c>
@@ -1934,8 +1989,11 @@
       <c r="W27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2031,11 +2092,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2259,8 +2329,11 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2295,20 +2368,20 @@
         <v>0</v>
       </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-38500</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
         <v>0</v>
       </c>
@@ -2324,8 +2397,11 @@
       <c r="W33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,8 +2465,11 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2425,20 +2504,20 @@
         <v>0</v>
       </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-38500</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
         <v>0</v>
       </c>
@@ -2454,78 +2533,84 @@
       <c r="W35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44985</v>
+      </c>
+      <c r="E38" s="2">
         <v>44895</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44804</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44712</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44620</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44530</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44439</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44347</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44255</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44165</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44074</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43982</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43890</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43799</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43708</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43616</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43524</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43434</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43343</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43251</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43159</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,8 +2660,9 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2639,8 +2726,11 @@
       <c r="W41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,8 +2794,11 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2769,8 +2862,11 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,8 +2930,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2899,8 +2998,11 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2964,8 +3066,11 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,8 +3134,11 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3094,8 +3202,11 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3123,8 +3234,8 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>4</v>
+      <c r="L49" s="3">
+        <v>0</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>4</v>
@@ -3141,8 +3252,8 @@
       <c r="Q49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R49" s="3">
-        <v>0</v>
+      <c r="R49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S49" s="3">
         <v>0</v>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,8 +3542,11 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3484,8 +3610,11 @@
       <c r="W54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,8 +3664,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3599,8 +3730,11 @@
       <c r="W57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3646,8 +3780,8 @@
       <c r="Q58" s="3">
         <v>100</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>4</v>
+      <c r="R58" s="3">
+        <v>100</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>4</v>
@@ -3664,13 +3798,16 @@
       <c r="W58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E59" s="3">
         <v>100</v>
@@ -3691,7 +3828,7 @@
         <v>100</v>
       </c>
       <c r="K59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L59" s="3">
         <v>0</v>
@@ -3712,7 +3849,7 @@
         <v>0</v>
       </c>
       <c r="R59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S59" s="3">
         <v>100</v>
@@ -3724,13 +3861,16 @@
         <v>100</v>
       </c>
       <c r="V59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3741,7 +3881,7 @@
         <v>300</v>
       </c>
       <c r="F60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G60" s="3">
         <v>200</v>
@@ -3765,7 +3905,7 @@
         <v>200</v>
       </c>
       <c r="N60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O60" s="3">
         <v>100</v>
@@ -3792,10 +3932,13 @@
         <v>100</v>
       </c>
       <c r="W60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3859,8 +4002,11 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,8 +4274,11 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4131,7 +4289,7 @@
         <v>300</v>
       </c>
       <c r="F66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G66" s="3">
         <v>200</v>
@@ -4155,7 +4313,7 @@
         <v>200</v>
       </c>
       <c r="N66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O66" s="3">
         <v>100</v>
@@ -4182,10 +4340,13 @@
         <v>100</v>
       </c>
       <c r="W66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,8 +4640,11 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4487,7 +4661,7 @@
         <v>-39000</v>
       </c>
       <c r="H72" s="3">
-        <v>-38900</v>
+        <v>-39000</v>
       </c>
       <c r="I72" s="3">
         <v>-38900</v>
@@ -4505,13 +4679,13 @@
         <v>-38900</v>
       </c>
       <c r="N72" s="3">
-        <v>-38800</v>
+        <v>-38900</v>
       </c>
       <c r="O72" s="3">
         <v>-38800</v>
       </c>
       <c r="P72" s="3">
-        <v>-200</v>
+        <v>-38800</v>
       </c>
       <c r="Q72" s="3">
         <v>-200</v>
@@ -4523,7 +4697,7 @@
         <v>-200</v>
       </c>
       <c r="T72" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="U72" s="3">
         <v>-100</v>
@@ -4534,8 +4708,11 @@
       <c r="W72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,8 +4912,11 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4741,7 +4927,7 @@
         <v>-300</v>
       </c>
       <c r="F76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="G76" s="3">
         <v>-200</v>
@@ -4765,7 +4951,7 @@
         <v>-200</v>
       </c>
       <c r="N76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="O76" s="3">
         <v>-100</v>
@@ -4789,13 +4975,16 @@
         <v>-100</v>
       </c>
       <c r="V76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,78 +5048,84 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44985</v>
+      </c>
+      <c r="E80" s="2">
         <v>44895</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44804</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44712</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44620</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44530</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44439</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44347</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44255</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44165</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44074</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43982</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43890</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43799</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43708</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43616</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43524</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43434</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43343</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43251</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43159</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4965,20 +5160,20 @@
         <v>0</v>
       </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-38500</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
         <v>0</v>
       </c>
@@ -4994,8 +5189,11 @@
       <c r="W81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,8 +5623,11 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5474,8 +5691,11 @@
       <c r="W89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5759,8 +5989,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,8 +6287,11 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6109,8 +6355,11 @@
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,8 +6423,11 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6237,6 +6489,9 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LAAB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LAAB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="92">
   <si>
     <t>LAAB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,108 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45077</v>
+      </c>
+      <c r="E7" s="2">
         <v>44985</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44895</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44804</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44712</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44620</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44530</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44439</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44347</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44255</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44165</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44074</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43982</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43890</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43799</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43708</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43616</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43524</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43434</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43343</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43251</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43159</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -829,8 +833,11 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -897,8 +904,11 @@
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +975,11 @@
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1004,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1073,11 @@
       <c r="X12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1144,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1174,8 +1194,8 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>4</v>
@@ -1189,14 +1209,17 @@
       <c r="V14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
+      <c r="W14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1286,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,8 +1312,9 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1328,11 +1355,11 @@
         <v>0</v>
       </c>
       <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
         <v>38500</v>
       </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
       <c r="R17" s="3">
         <v>0</v>
       </c>
@@ -1354,8 +1381,11 @@
       <c r="X17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1396,11 +1426,11 @@
         <v>0</v>
       </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-38500</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
         <v>0</v>
       </c>
@@ -1422,8 +1452,11 @@
       <c r="X18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1481,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1516,8 +1550,11 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1584,8 +1621,11 @@
       <c r="X21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1623,37 +1663,40 @@
         <v>0</v>
       </c>
       <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
         <v>100</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
       <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
         <v>100</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T22" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
-      </c>
-      <c r="W22" s="3" t="s">
-        <v>4</v>
+      <c r="V22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
       </c>
       <c r="X22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1691,20 +1734,20 @@
         <v>0</v>
       </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-38500</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>-100</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
       <c r="T23" s="3">
         <v>0</v>
       </c>
@@ -1720,8 +1763,11 @@
       <c r="X23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1834,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,13 +1905,16 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>0</v>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -1895,20 +1947,20 @@
         <v>0</v>
       </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-38500</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
       <c r="T26" s="3">
         <v>0</v>
       </c>
@@ -1924,13 +1976,16 @@
       <c r="X26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>0</v>
+      <c r="D27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -1963,20 +2018,20 @@
         <v>0</v>
       </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-38500</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
       <c r="T27" s="3">
         <v>0</v>
       </c>
@@ -1992,8 +2047,11 @@
       <c r="X27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2095,11 +2156,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
@@ -2128,8 +2189,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2331,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2332,13 +2402,16 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>0</v>
+      <c r="D33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -2371,20 +2444,20 @@
         <v>0</v>
       </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-38500</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
       <c r="T33" s="3">
         <v>0</v>
       </c>
@@ -2400,8 +2473,11 @@
       <c r="X33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,13 +2544,16 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>0</v>
+      <c r="D35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -2507,20 +2586,20 @@
         <v>0</v>
       </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-38500</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
       <c r="T35" s="3">
         <v>0</v>
       </c>
@@ -2536,81 +2615,87 @@
       <c r="X35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45077</v>
+      </c>
+      <c r="E38" s="2">
         <v>44985</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44895</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44804</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44712</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44620</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44530</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44439</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44347</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44255</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44165</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44074</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43982</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43890</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43799</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43708</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43616</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43524</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43434</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43343</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43251</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43159</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,8 +2747,9 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2729,8 +2816,11 @@
       <c r="X41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,8 +2887,11 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2865,8 +2958,11 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,8 +3029,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3001,8 +3100,11 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3069,8 +3171,11 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,8 +3242,11 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3205,8 +3313,11 @@
       <c r="X48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3237,8 +3348,8 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>4</v>
+      <c r="M49" s="3">
+        <v>0</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>4</v>
@@ -3255,8 +3366,8 @@
       <c r="R49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S49" s="3">
-        <v>0</v>
+      <c r="S49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T49" s="3">
         <v>0</v>
@@ -3273,8 +3384,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3526,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3477,8 +3597,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,13 +3668,16 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3">
-        <v>0</v>
+      <c r="D54" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E54" s="3">
         <v>0</v>
@@ -3613,8 +3739,11 @@
       <c r="X54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,8 +3795,9 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3733,8 +3864,11 @@
       <c r="X57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3783,8 +3917,8 @@
       <c r="R58" s="3">
         <v>100</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>4</v>
+      <c r="S58" s="3">
+        <v>100</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>4</v>
@@ -3801,8 +3935,11 @@
       <c r="X58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3810,7 +3947,7 @@
         <v>200</v>
       </c>
       <c r="E59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F59" s="3">
         <v>100</v>
@@ -3831,7 +3968,7 @@
         <v>100</v>
       </c>
       <c r="L59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
@@ -3852,7 +3989,7 @@
         <v>0</v>
       </c>
       <c r="S59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T59" s="3">
         <v>100</v>
@@ -3864,13 +4001,16 @@
         <v>100</v>
       </c>
       <c r="W59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3884,7 +4024,7 @@
         <v>300</v>
       </c>
       <c r="G60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H60" s="3">
         <v>200</v>
@@ -3908,7 +4048,7 @@
         <v>200</v>
       </c>
       <c r="O60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P60" s="3">
         <v>100</v>
@@ -3935,10 +4075,13 @@
         <v>100</v>
       </c>
       <c r="X60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4005,8 +4148,11 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4073,8 +4219,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,8 +4432,11 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4292,7 +4450,7 @@
         <v>300</v>
       </c>
       <c r="G66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H66" s="3">
         <v>200</v>
@@ -4316,7 +4474,7 @@
         <v>200</v>
       </c>
       <c r="O66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P66" s="3">
         <v>100</v>
@@ -4343,10 +4501,13 @@
         <v>100</v>
       </c>
       <c r="X66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Y66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,8 +4814,11 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4664,7 +4838,7 @@
         <v>-39000</v>
       </c>
       <c r="I72" s="3">
-        <v>-38900</v>
+        <v>-39000</v>
       </c>
       <c r="J72" s="3">
         <v>-38900</v>
@@ -4682,13 +4856,13 @@
         <v>-38900</v>
       </c>
       <c r="O72" s="3">
-        <v>-38800</v>
+        <v>-38900</v>
       </c>
       <c r="P72" s="3">
         <v>-38800</v>
       </c>
       <c r="Q72" s="3">
-        <v>-200</v>
+        <v>-38800</v>
       </c>
       <c r="R72" s="3">
         <v>-200</v>
@@ -4700,7 +4874,7 @@
         <v>-200</v>
       </c>
       <c r="U72" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="V72" s="3">
         <v>-100</v>
@@ -4711,8 +4885,11 @@
       <c r="X72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,8 +5098,11 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4930,7 +5116,7 @@
         <v>-300</v>
       </c>
       <c r="G76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="H76" s="3">
         <v>-200</v>
@@ -4954,7 +5140,7 @@
         <v>-200</v>
       </c>
       <c r="O76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="P76" s="3">
         <v>-100</v>
@@ -4978,13 +5164,16 @@
         <v>-100</v>
       </c>
       <c r="W76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,86 +5240,92 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45077</v>
+      </c>
+      <c r="E80" s="2">
         <v>44985</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44895</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44804</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44712</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44620</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44530</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44439</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44347</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44255</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44165</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44074</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43982</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43890</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43799</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43708</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43616</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43524</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43434</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43343</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43251</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43159</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>0</v>
+      <c r="D81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
@@ -5163,20 +5358,20 @@
         <v>0</v>
       </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-38500</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
       <c r="T81" s="3">
         <v>0</v>
       </c>
@@ -5192,8 +5387,11 @@
       <c r="X81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5416,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5286,8 +5485,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,8 +5840,11 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5694,8 +5911,11 @@
       <c r="X89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5940,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5788,8 +6009,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6151,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5992,8 +6222,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6251,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6320,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +6533,11 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6358,8 +6604,11 @@
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,8 +6675,11 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6492,6 +6744,9 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LAAB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LAAB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="92">
   <si>
     <t>LAAB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,108 +665,112 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45169</v>
+      </c>
+      <c r="E7" s="2">
         <v>45077</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44985</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44895</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44804</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44712</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44620</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44530</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44439</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44347</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44255</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44165</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44074</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43982</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43890</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43799</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43708</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43616</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43524</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43434</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43343</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43251</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43159</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -836,8 +840,11 @@
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -907,8 +914,11 @@
       <c r="Y9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -978,8 +988,11 @@
       <c r="Y10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1005,8 +1018,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1076,8 +1090,11 @@
       <c r="Y12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,8 +1164,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1197,8 +1217,8 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
@@ -1212,14 +1232,17 @@
       <c r="W14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
+      <c r="X14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1289,8 +1312,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,8 +1339,9 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1358,11 +1385,11 @@
         <v>0</v>
       </c>
       <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
         <v>38500</v>
       </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
       <c r="S17" s="3">
         <v>0</v>
       </c>
@@ -1384,8 +1411,11 @@
       <c r="Y17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1429,11 +1459,11 @@
         <v>0</v>
       </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>-38500</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
       <c r="S18" s="3">
         <v>0</v>
       </c>
@@ -1455,8 +1485,11 @@
       <c r="Y18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,8 +1515,9 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1553,8 +1587,11 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1624,8 +1661,11 @@
       <c r="Y21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1666,37 +1706,40 @@
         <v>0</v>
       </c>
       <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
         <v>100</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
       <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
         <v>100</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U22" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
-      </c>
-      <c r="X22" s="3" t="s">
-        <v>4</v>
+      <c r="W22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
       </c>
       <c r="Y22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1737,20 +1780,20 @@
         <v>0</v>
       </c>
       <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-38500</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
         <v>-100</v>
       </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
       <c r="U23" s="3">
         <v>0</v>
       </c>
@@ -1766,8 +1809,11 @@
       <c r="Y23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1837,8 +1883,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,13 +1957,16 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>0</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -1950,20 +2002,20 @@
         <v>0</v>
       </c>
       <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-38500</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
         <v>-100</v>
       </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
       <c r="U26" s="3">
         <v>0</v>
       </c>
@@ -1979,13 +2031,16 @@
       <c r="Y26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>0</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -2021,20 +2076,20 @@
         <v>0</v>
       </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-38500</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
         <v>-100</v>
       </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
       <c r="U27" s="3">
         <v>0</v>
       </c>
@@ -2050,8 +2105,11 @@
       <c r="Y27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2179,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2159,11 +2220,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
@@ -2192,8 +2253,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2327,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,8 +2401,11 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2405,13 +2475,16 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>0</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -2447,20 +2520,20 @@
         <v>0</v>
       </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-38500</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
         <v>-100</v>
       </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
       <c r="U33" s="3">
         <v>0</v>
       </c>
@@ -2476,8 +2549,11 @@
       <c r="Y33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,13 +2623,16 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>0</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -2589,20 +2668,20 @@
         <v>0</v>
       </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-38500</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
         <v>-100</v>
       </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
       <c r="U35" s="3">
         <v>0</v>
       </c>
@@ -2618,84 +2697,90 @@
       <c r="Y35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45169</v>
+      </c>
+      <c r="E38" s="2">
         <v>45077</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44985</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44895</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44804</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44712</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44620</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44530</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44439</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44347</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44255</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44165</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44074</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43982</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43890</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43799</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43708</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43616</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43524</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43434</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43343</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43251</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43159</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2806,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,8 +2834,9 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2819,8 +2906,11 @@
       <c r="Y41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2890,8 +2980,11 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2961,8 +3054,11 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3032,8 +3128,11 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3103,8 +3202,11 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3174,8 +3276,11 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3245,8 +3350,11 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3316,8 +3424,11 @@
       <c r="Y48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3351,8 +3462,8 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>4</v>
+      <c r="N49" s="3">
+        <v>0</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>4</v>
@@ -3369,8 +3480,8 @@
       <c r="S49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T49" s="3">
-        <v>0</v>
+      <c r="T49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U49" s="3">
         <v>0</v>
@@ -3387,8 +3498,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3572,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,8 +3646,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3600,8 +3720,11 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,13 +3794,16 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>4</v>
+      <c r="D54" s="3">
+        <v>0</v>
       </c>
       <c r="E54" s="3">
         <v>0</v>
@@ -3742,8 +3868,11 @@
       <c r="Y54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3898,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,8 +3926,9 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3867,8 +3998,11 @@
       <c r="Y57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3920,8 +4054,8 @@
       <c r="S58" s="3">
         <v>100</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>4</v>
+      <c r="T58" s="3">
+        <v>100</v>
       </c>
       <c r="U58" s="3" t="s">
         <v>4</v>
@@ -3938,8 +4072,11 @@
       <c r="Y58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3950,7 +4087,7 @@
         <v>200</v>
       </c>
       <c r="F59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G59" s="3">
         <v>100</v>
@@ -3971,7 +4108,7 @@
         <v>100</v>
       </c>
       <c r="M59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
@@ -3992,7 +4129,7 @@
         <v>0</v>
       </c>
       <c r="T59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U59" s="3">
         <v>100</v>
@@ -4004,13 +4141,16 @@
         <v>100</v>
       </c>
       <c r="X59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4027,7 +4167,7 @@
         <v>300</v>
       </c>
       <c r="H60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I60" s="3">
         <v>200</v>
@@ -4051,7 +4191,7 @@
         <v>200</v>
       </c>
       <c r="P60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q60" s="3">
         <v>100</v>
@@ -4078,10 +4218,13 @@
         <v>100</v>
       </c>
       <c r="Y60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4151,8 +4294,11 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4222,8 +4368,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4442,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4516,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,8 +4590,11 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4453,7 +4611,7 @@
         <v>300</v>
       </c>
       <c r="H66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I66" s="3">
         <v>200</v>
@@ -4477,7 +4635,7 @@
         <v>200</v>
       </c>
       <c r="P66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q66" s="3">
         <v>100</v>
@@ -4504,10 +4662,13 @@
         <v>100</v>
       </c>
       <c r="Y66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Z66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4694,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4766,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4840,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4914,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,13 +4988,16 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-39000</v>
+        <v>-39100</v>
       </c>
       <c r="E72" s="3">
         <v>-39000</v>
@@ -4841,7 +5015,7 @@
         <v>-39000</v>
       </c>
       <c r="J72" s="3">
-        <v>-38900</v>
+        <v>-39000</v>
       </c>
       <c r="K72" s="3">
         <v>-38900</v>
@@ -4859,13 +5033,13 @@
         <v>-38900</v>
       </c>
       <c r="P72" s="3">
-        <v>-38800</v>
+        <v>-38900</v>
       </c>
       <c r="Q72" s="3">
         <v>-38800</v>
       </c>
       <c r="R72" s="3">
-        <v>-200</v>
+        <v>-38800</v>
       </c>
       <c r="S72" s="3">
         <v>-200</v>
@@ -4877,7 +5051,7 @@
         <v>-200</v>
       </c>
       <c r="V72" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="W72" s="3">
         <v>-100</v>
@@ -4888,8 +5062,11 @@
       <c r="Y72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5136,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5210,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,8 +5284,11 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5119,7 +5305,7 @@
         <v>-300</v>
       </c>
       <c r="H76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="I76" s="3">
         <v>-200</v>
@@ -5143,7 +5329,7 @@
         <v>-200</v>
       </c>
       <c r="P76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Q76" s="3">
         <v>-100</v>
@@ -5167,13 +5353,16 @@
         <v>-100</v>
       </c>
       <c r="X76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,89 +5432,95 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45169</v>
+      </c>
+      <c r="E80" s="2">
         <v>45077</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44985</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44895</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44804</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44712</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44620</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44530</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44439</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44347</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44255</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44165</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44074</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43982</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43890</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43799</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43708</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43616</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43524</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43434</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43343</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43251</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43159</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>0</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
@@ -5361,20 +5556,20 @@
         <v>0</v>
       </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-38500</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
         <v>-100</v>
       </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
       <c r="U81" s="3">
         <v>0</v>
       </c>
@@ -5390,8 +5585,11 @@
       <c r="Y81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,8 +5615,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5488,8 +5687,11 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5761,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5835,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5909,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5983,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,8 +6057,11 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5914,8 +6131,11 @@
       <c r="Y89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,8 +6161,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6012,8 +6233,11 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6307,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,8 +6381,11 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6225,8 +6455,11 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6485,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6557,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6631,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6705,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,8 +6779,11 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6607,8 +6853,11 @@
       <c r="Y100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6678,8 +6927,11 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6747,6 +6999,9 @@
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>
